--- a/SIS/Input and Constants/sis_in_lls.xlsx
+++ b/SIS/Input and Constants/sis_in_lls.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1BEE46A-94FE-40B8-BBC4-818B9FC59138}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd63959326c3653d/Desktop/Satlab/STADS/Github/STADS/SIS/Input and Constants/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{B1BEE46A-94FE-40B8-BBC4-818B9FC59138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D4167B8-2B78-4100-9669-250C86C7A624}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -104,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,23 +463,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,12 +493,12 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>1280</v>
+        <v>808</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -504,12 +507,12 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>1024</v>
+        <v>608</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -518,7 +521,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -532,7 +535,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,7 +549,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -560,7 +563,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -574,7 +577,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -582,7 +585,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -596,7 +599,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -610,7 +613,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -624,7 +627,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -638,7 +641,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -652,7 +655,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -666,7 +669,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -680,7 +683,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -694,7 +697,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -702,7 +705,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
